--- a/paradigms/paradigms_excel/particles_aux.xlsx
+++ b/paradigms/paradigms_excel/particles_aux.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding/Apertium/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hovsep/Google Drive/Coding/Verbs_Paradigms/Public/paradigms/paradigms_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3402EE21-581B-8C46-91A1-2685B9869678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15240" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1160" windowWidth="28160" windowHeight="15240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -59,84 +68,45 @@
     <t>Synthetic negative auxilary</t>
   </si>
   <si>
-    <t>Present 1SG</t>
-  </si>
-  <si>
     <t>չեմ</t>
   </si>
   <si>
-    <t>Present 2SG</t>
-  </si>
-  <si>
     <t>չես</t>
   </si>
   <si>
     <t>no space between synthetic negative and verb</t>
   </si>
   <si>
-    <t>Present 3SG (before vowel)</t>
-  </si>
-  <si>
     <t>չ'</t>
   </si>
   <si>
-    <t>Present 3SG (before consonant</t>
-  </si>
-  <si>
     <t>չի</t>
   </si>
   <si>
-    <t>Present 1PL</t>
-  </si>
-  <si>
     <t>չենք</t>
   </si>
   <si>
-    <t>Present 2PL</t>
-  </si>
-  <si>
     <t>չէք</t>
   </si>
   <si>
-    <t>Present 3PL</t>
-  </si>
-  <si>
     <t>չեն</t>
   </si>
   <si>
-    <t>Past imperfective 1SG</t>
-  </si>
-  <si>
     <t>չէի</t>
   </si>
   <si>
-    <t>Past imperfective 2SG</t>
-  </si>
-  <si>
     <t>չէիր</t>
   </si>
   <si>
-    <t>Past imperfective 3SG</t>
-  </si>
-  <si>
     <t>չէր</t>
   </si>
   <si>
-    <t>Past imperfective 1PL</t>
-  </si>
-  <si>
     <t>չէինք</t>
   </si>
   <si>
-    <t>Past imperfective 2PL</t>
-  </si>
-  <si>
     <t>չէիք</t>
   </si>
   <si>
-    <t>Past imperfective 3PL</t>
-  </si>
-  <si>
     <t>չէին</t>
   </si>
   <si>
@@ -156,13 +126,52 @@
   </si>
   <si>
     <t>ըլլալ</t>
+  </si>
+  <si>
+    <t>present 1sg</t>
+  </si>
+  <si>
+    <t>present 2sg</t>
+  </si>
+  <si>
+    <t>present 3sg (before vowel)</t>
+  </si>
+  <si>
+    <t>present 3sg (before consonant</t>
+  </si>
+  <si>
+    <t>present 1pl</t>
+  </si>
+  <si>
+    <t>present 2pl</t>
+  </si>
+  <si>
+    <t>present 3pl</t>
+  </si>
+  <si>
+    <t>past imperfect 1sg</t>
+  </si>
+  <si>
+    <t>past imperfect 2sg</t>
+  </si>
+  <si>
+    <t>past imperfect 3sg</t>
+  </si>
+  <si>
+    <t>past imperfect 1pl</t>
+  </si>
+  <si>
+    <t>past imperfect 2pl</t>
+  </si>
+  <si>
+    <t>past imperfect 3pl</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -211,6 +220,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -478,24 +490,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="A7" sqref="A7:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -506,7 +518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -514,7 +526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -525,155 +537,155 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>40</v>
       </c>
       <c r="B23">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>33</v>
